--- a/bots/crawl_ch/output/bread_coop_2023-02-22.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O388"/>
+  <dimension ref="A1:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6506,7 +6506,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8798,7 +8798,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8867,7 +8867,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9289,7 +9289,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9358,7 +9358,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9642,7 +9642,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9784,7 +9784,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9857,7 +9857,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10137,7 +10137,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10275,7 +10275,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10344,7 +10344,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10847,7 +10847,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12125,7 +12125,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12267,7 +12267,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12624,7 +12624,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12766,7 +12766,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12839,7 +12839,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12912,7 +12912,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12981,7 +12981,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13054,7 +13054,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13123,7 +13123,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13192,7 +13192,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13265,7 +13265,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13334,7 +13334,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13403,7 +13403,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13472,7 +13472,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13541,7 +13541,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13610,7 +13610,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13959,7 +13959,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14028,7 +14028,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14888,7 +14888,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15387,7 +15387,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15460,7 +15460,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15602,7 +15602,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15675,7 +15675,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15748,7 +15748,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15817,7 +15817,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15886,7 +15886,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16024,7 +16024,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16304,7 +16304,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16519,7 +16519,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16730,7 +16730,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16799,7 +16799,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17010,7 +17010,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17152,7 +17152,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17221,7 +17221,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17570,7 +17570,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17643,7 +17643,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17716,7 +17716,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17787,7 +17787,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17860,7 +17860,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18002,7 +18002,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18075,7 +18075,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18144,7 +18144,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18286,7 +18286,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18355,7 +18355,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18424,7 +18424,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18497,7 +18497,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18570,7 +18570,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18639,7 +18639,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18712,7 +18712,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18785,7 +18785,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18854,7 +18854,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18927,7 +18927,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19000,7 +19000,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19073,7 +19073,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19146,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19215,7 +19215,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19282,7 +19282,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19351,7 +19351,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19420,7 +19420,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19493,7 +19493,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19566,7 +19566,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19635,7 +19635,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19704,7 +19704,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19771,7 +19771,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19840,7 +19840,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19909,7 +19909,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19982,7 +19982,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20055,7 +20055,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20124,7 +20124,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20193,7 +20193,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20262,7 +20262,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20329,7 +20329,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20398,7 +20398,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20471,7 +20471,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20540,7 +20540,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20607,7 +20607,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20680,7 +20680,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20749,7 +20749,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20822,7 +20822,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20891,7 +20891,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20960,7 +20960,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21033,7 +21033,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21102,7 +21102,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21171,7 +21171,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21244,7 +21244,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21317,7 +21317,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21386,7 +21386,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21459,7 +21459,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21528,7 +21528,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21597,7 +21597,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21666,7 +21666,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22078,13 +22078,13 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
+          <t>Betty Bossi Pfaffenhut 2x  100g - Online kein Bestand 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22433,7 +22433,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22502,7 +22502,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22571,7 +22571,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22640,7 +22640,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22711,7 +22711,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22784,7 +22784,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22857,7 +22857,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22926,7 +22926,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22995,7 +22995,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23064,7 +23064,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23137,7 +23137,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23210,7 +23210,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23279,7 +23279,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23348,7 +23348,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23417,7 +23417,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23484,7 +23484,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23553,7 +23553,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23622,7 +23622,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23691,7 +23691,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23758,7 +23758,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23827,7 +23827,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23894,7 +23894,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23967,7 +23967,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24036,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24176,7 +24176,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24245,7 +24245,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24314,7 +24314,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24387,7 +24387,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24460,7 +24460,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24529,7 +24529,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24598,7 +24598,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24667,7 +24667,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24736,7 +24736,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24805,7 +24805,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24876,7 +24876,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24945,7 +24945,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25018,7 +25018,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25087,7 +25087,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25156,7 +25156,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25436,7 +25436,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25578,7 +25578,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25647,7 +25647,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25716,7 +25716,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25785,7 +25785,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25854,7 +25854,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25923,7 +25923,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25996,7 +25996,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26069,7 +26069,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26142,7 +26142,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26209,7 +26209,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26278,7 +26278,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26351,7 +26351,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26420,7 +26420,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26493,45 +26493,43 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6472919</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-herzbiber-3x76g/p/6472919</t>
-        </is>
-      </c>
-      <c r="D369" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
       <c r="E369" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26541,7 +26539,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26551,58 +26549,56 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g 21% Aktion 4.95 Schweizer Franken statt 6.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N369" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>6</v>
+      </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26612,7 +26608,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26622,56 +26618,56 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26681,7 +26677,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26691,56 +26687,56 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>4486076</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Zweifel Appenzeller Biberli 10 Stück</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zweifel-appenzeller-biberli-10-stueck/p/4486076</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26750,7 +26746,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26760,56 +26756,60 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N372" t="inlineStr"/>
+          <t>Zweifel Appenzeller Biberli 10 Stück 17.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>4486076</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Zweifel Appenzeller Biberli 10 Stück</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zweifel-appenzeller-biberli-10-stueck/p/4486076</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26819,7 +26819,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26829,60 +26829,56 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Zweifel Appenzeller Biberli 10 Stück 17.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N373" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26892,7 +26888,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26902,56 +26898,60 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N374" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E375" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -26961,7 +26961,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26971,46 +26971,42 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N375" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E376" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
@@ -27049,51 +27045,51 @@
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E377" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27103,7 +27099,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27113,56 +27109,56 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E378" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27172,7 +27168,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27182,42 +27178,40 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>6583113</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Frischback Pagnolbrot</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
-        </is>
-      </c>
-      <c r="D379" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/frischback-pagnolbrot/p/6583113</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr"/>
       <c r="E379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -27226,12 +27220,12 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.09/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27241,7 +27235,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27251,54 +27245,60 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N379" t="inlineStr"/>
+          <t>Frischback Pagnolbrot 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>6583113</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Frischback Pagnolbrot</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/frischback-pagnolbrot/p/6583113</t>
-        </is>
-      </c>
-      <c r="D380" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>2</v>
+      </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>1.09/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27308,7 +27308,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27318,60 +27318,54 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>Frischback Pagnolbrot 20% ab 2 Aktion 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N380" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
-        </is>
-      </c>
-      <c r="D381" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
       <c r="E381" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27381,7 +27375,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27396,49 +27390,51 @@
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D382" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>3</v>
+      </c>
       <c r="E382" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27448,7 +27444,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27458,56 +27454,54 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>6515840</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Bauli Croissant Classico 6 Stück</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
-        </is>
-      </c>
-      <c r="D383" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-classico-6-stueck/p/6515840</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr"/>
       <c r="E383" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27517,7 +27511,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27527,54 +27521,56 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
+          <t>Bauli Croissant Classico 6 Stück 20% Aktion 2.35 Schweizer Franken statt 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6515840</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Bauli Croissant Classico 6 Stück</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-classico-6-stueck/p/6515840</t>
-        </is>
-      </c>
-      <c r="D384" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>14</v>
+      </c>
       <c r="E384" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -27584,7 +27580,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27594,56 +27590,58 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Bauli Croissant Classico 6 Stück 20% Aktion 2.35 Schweizer Franken statt 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N384" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>3735796</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Niederegger Marzipan Vollmilchbrot</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
-        </is>
-      </c>
-      <c r="D385" t="n">
-        <v>14</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-marzipan-vollmilchbrot/p/3735796</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr"/>
       <c r="E385" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Niederegger</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>4.76/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27653,7 +27651,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27663,39 +27661,35 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N385" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Niederegger Marzipan Vollmilchbrot 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>3735796</t>
+          <t>3002037</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Niederegger Marzipan Vollmilchbrot</t>
+          <t>Niederegger Schwarzbrot Marzipan</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-marzipan-vollmilchbrot/p/3735796</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-schwarzbrot-marzipan/p/3002037</t>
         </is>
       </c>
       <c r="D386" t="inlineStr"/>
@@ -27739,30 +27733,30 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Niederegger Marzipan Vollmilchbrot 5.95 Schweizer Franken</t>
+          <t>Niederegger Schwarzbrot Marzipan 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>3002037</t>
+          <t>6677259</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Niederegger Schwarzbrot Marzipan</t>
+          <t>Ostertaube</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-schwarzbrot-marzipan/p/3002037</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/ostertaube/p/6677259</t>
         </is>
       </c>
       <c r="D387" t="inlineStr"/>
@@ -27771,17 +27765,17 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Niederegger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>4.76/100g</t>
+          <t>2.10/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27791,7 +27785,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27801,85 +27795,18 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Niederegger Schwarzbrot Marzipan 5.95 Schweizer Franken</t>
+          <t>Ostertaube 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-22 12:57:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>6677259</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>Ostertaube</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/ostertaube/p/6677259</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr"/>
-      <c r="E388" t="n">
-        <v>0</v>
-      </c>
-      <c r="F388" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2.10/100g</t>
-        </is>
-      </c>
-      <c r="I388" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J388" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
-        </is>
-      </c>
-      <c r="M388" t="inlineStr">
-        <is>
-          <t>Ostertaube 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N388" t="inlineStr"/>
-      <c r="O388" t="inlineStr">
-        <is>
-          <t>2023-02-22 12:57:22</t>
+          <t>2023-02-22 20:49:40</t>
         </is>
       </c>
     </row>
